--- a/Code/Results/Cases/Case_2_177/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_177/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.406707101556606</v>
+        <v>1.818362043847685</v>
       </c>
       <c r="C2">
-        <v>0.4669288005541432</v>
+        <v>0.2118598411243227</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06142213114440764</v>
+        <v>0.1743235531513694</v>
       </c>
       <c r="F2">
-        <v>1.507335716325798</v>
+        <v>2.353167595623987</v>
       </c>
       <c r="G2">
-        <v>1.02666621544941</v>
+        <v>1.282216414801326</v>
       </c>
       <c r="H2">
-        <v>0.6531961894025784</v>
+        <v>1.197669600169419</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03317914961057333</v>
+        <v>0.0661997051410177</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3805824837205449</v>
+        <v>0.4426690926716219</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.957583367461552</v>
+        <v>1.696117719919414</v>
       </c>
       <c r="C3">
-        <v>0.416541290177264</v>
+        <v>0.1955029934090078</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06015678452545359</v>
+        <v>0.1746252053773887</v>
       </c>
       <c r="F3">
-        <v>1.413862884293295</v>
+        <v>2.349591563410456</v>
       </c>
       <c r="G3">
-        <v>0.9555160467215558</v>
+        <v>1.278326469021522</v>
       </c>
       <c r="H3">
-        <v>0.6307337691025197</v>
+        <v>1.202959069354051</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03586703302512451</v>
+        <v>0.06719906058118941</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3378235871686712</v>
+        <v>0.4326258510333645</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.684209251573577</v>
+        <v>1.621674726518108</v>
       </c>
       <c r="C4">
-        <v>0.3857213820026857</v>
+        <v>0.185380532939206</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05942479613403862</v>
+        <v>0.1748477295278779</v>
       </c>
       <c r="F4">
-        <v>1.35986548765915</v>
+        <v>2.34885065708221</v>
       </c>
       <c r="G4">
-        <v>0.9150667047380239</v>
+        <v>1.277021478398467</v>
       </c>
       <c r="H4">
-        <v>0.6187211068795335</v>
+        <v>1.206961449066029</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03759485554335384</v>
+        <v>0.06784548599967266</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3118445008857123</v>
+        <v>0.4266081973903511</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.57331590369381</v>
+        <v>1.59149411452546</v>
       </c>
       <c r="C5">
-        <v>0.3731815565424483</v>
+        <v>0.1812356175849175</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.05913743522614467</v>
+        <v>0.1749478198406944</v>
       </c>
       <c r="F5">
-        <v>1.338655221315946</v>
+        <v>2.34891388011178</v>
       </c>
       <c r="G5">
-        <v>0.8993335359767514</v>
+        <v>1.276760891748253</v>
       </c>
       <c r="H5">
-        <v>0.6142439356811025</v>
+        <v>1.208781779804866</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0383176750316645</v>
+        <v>0.06811715843459343</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3013193863708921</v>
+        <v>0.424193594103059</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.554930320945004</v>
+        <v>1.586492061902618</v>
       </c>
       <c r="C6">
-        <v>0.3711002259861118</v>
+        <v>0.1805461541182183</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.05909036904971288</v>
+        <v>0.1749650089350858</v>
       </c>
       <c r="F6">
-        <v>1.335179567575807</v>
+        <v>2.348946412750678</v>
       </c>
       <c r="G6">
-        <v>0.8967645909976909</v>
+        <v>1.276733965674723</v>
       </c>
       <c r="H6">
-        <v>0.6135249374649305</v>
+        <v>1.209095466814091</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03843880838844438</v>
+        <v>0.0681627675559362</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2995752069413413</v>
+        <v>0.4237949299977117</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.682711761495057</v>
+        <v>1.621267069570649</v>
       </c>
       <c r="C7">
-        <v>0.3855521992904869</v>
+        <v>0.1853247138436132</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05942087689616748</v>
+        <v>0.1748490412420125</v>
       </c>
       <c r="F7">
-        <v>1.359576299157951</v>
+        <v>2.34885003215777</v>
       </c>
       <c r="G7">
-        <v>0.9148515648890196</v>
+        <v>1.277016867571092</v>
       </c>
       <c r="H7">
-        <v>0.6186590706382731</v>
+        <v>1.206985232676942</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03760452890010857</v>
+        <v>0.06784911647448588</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3117023158186925</v>
+        <v>0.4265754805516337</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.251295472110826</v>
+        <v>1.776084841295074</v>
       </c>
       <c r="C8">
-        <v>0.4495242336099636</v>
+        <v>0.2062364553657119</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06097628006844324</v>
+        <v>0.1744198363247929</v>
       </c>
       <c r="F8">
-        <v>1.474364349037884</v>
+        <v>2.351632225636038</v>
       </c>
       <c r="G8">
-        <v>1.001421938787288</v>
+        <v>1.280649542688749</v>
       </c>
       <c r="H8">
-        <v>0.6450635036576102</v>
+        <v>1.199336527305064</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03408937745040763</v>
+        <v>0.06653746968779473</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3657773692818864</v>
+        <v>0.4391753788185184</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.389840169756042</v>
+        <v>2.084551954139272</v>
       </c>
       <c r="C9">
-        <v>0.5764232100195272</v>
+        <v>0.2466169266309919</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.06440148660209033</v>
+        <v>0.173873002580974</v>
       </c>
       <c r="F9">
-        <v>1.729331712359368</v>
+        <v>2.368665149630729</v>
       </c>
       <c r="G9">
-        <v>1.200006237077076</v>
+        <v>1.296427904795053</v>
       </c>
       <c r="H9">
-        <v>0.7124040885424847</v>
+        <v>1.190345303739406</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02784893600009486</v>
+        <v>0.06422585402298164</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4743791687908185</v>
+        <v>0.4650589893580559</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.247808187325575</v>
+        <v>2.314160155894683</v>
       </c>
       <c r="C10">
-        <v>0.6713399983894419</v>
+        <v>0.2759073894301878</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06717534378419465</v>
+        <v>0.1736494684309875</v>
       </c>
       <c r="F10">
-        <v>1.939341129590417</v>
+        <v>2.388289208417035</v>
       </c>
       <c r="G10">
-        <v>1.368282902724303</v>
+        <v>1.31337998580517</v>
       </c>
       <c r="H10">
-        <v>0.7735793790591856</v>
+        <v>1.187431450249392</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02372241808122588</v>
+        <v>0.06268648413176159</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5563154762218687</v>
+        <v>0.4847859918471045</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.644579044940372</v>
+        <v>2.419265502778728</v>
       </c>
       <c r="C11">
-        <v>0.7150898538585295</v>
+        <v>0.2891519091557768</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.06850036988058861</v>
+        <v>0.1735861650505619</v>
       </c>
       <c r="F11">
-        <v>2.040924795476684</v>
+        <v>2.398772223941606</v>
       </c>
       <c r="G11">
-        <v>1.450904676634565</v>
+        <v>1.322273969976379</v>
       </c>
       <c r="H11">
-        <v>0.804507386098237</v>
+        <v>1.186914017706584</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0219606198866682</v>
+        <v>0.06202074684319037</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5942031784759649</v>
+        <v>0.4939134715579172</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.79592496625861</v>
+        <v>2.459160235515697</v>
       </c>
       <c r="C12">
-        <v>0.7317582763207042</v>
+        <v>0.2941558377081606</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.06901188594903296</v>
+        <v>0.1735676866514595</v>
       </c>
       <c r="F12">
-        <v>2.080366648666029</v>
+        <v>2.402966464740416</v>
       </c>
       <c r="G12">
-        <v>1.483178685770497</v>
+        <v>1.325813336318561</v>
       </c>
       <c r="H12">
-        <v>0.816717309765977</v>
+        <v>1.186834791729922</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02131164116002182</v>
+        <v>0.06177362114781459</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6086522067612066</v>
+        <v>0.4973917563277865</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.763278259833726</v>
+        <v>2.450564036930757</v>
       </c>
       <c r="C13">
-        <v>0.7281635988964581</v>
+        <v>0.2930786628538726</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06890127632918031</v>
+        <v>0.1735714224087115</v>
       </c>
       <c r="F13">
-        <v>2.07182701988387</v>
+        <v>2.40205316006751</v>
       </c>
       <c r="G13">
-        <v>1.476182053323271</v>
+        <v>1.325043425028525</v>
       </c>
       <c r="H13">
-        <v>0.8140646271592402</v>
+        <v>1.186846655373813</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02145057426263808</v>
+        <v>0.06182662268952654</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6055355941515472</v>
+        <v>0.4966416739503785</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.657007352913354</v>
+        <v>2.422545793669087</v>
       </c>
       <c r="C14">
-        <v>0.716459027131009</v>
+        <v>0.2895638155023619</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.0685422529417643</v>
+        <v>0.1735845348787919</v>
       </c>
       <c r="F14">
-        <v>2.044149534346118</v>
+        <v>2.399112781683129</v>
       </c>
       <c r="G14">
-        <v>1.453539400590557</v>
+        <v>1.322561712592915</v>
       </c>
       <c r="H14">
-        <v>0.8055015976266304</v>
+        <v>1.186905157665478</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.021906853849047</v>
+        <v>0.0620003159105611</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5953897869215581</v>
+        <v>0.4941991941016397</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.592061517473667</v>
+        <v>2.405395984528582</v>
       </c>
       <c r="C15">
-        <v>0.7093034374996705</v>
+        <v>0.2874093745781749</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.06832363269087338</v>
+        <v>0.1735932812491914</v>
       </c>
       <c r="F15">
-        <v>2.027326456021669</v>
+        <v>2.397340982192176</v>
       </c>
       <c r="G15">
-        <v>1.43980225011822</v>
+        <v>1.321063955423199</v>
       </c>
       <c r="H15">
-        <v>0.8003230312142477</v>
+        <v>1.186956206910537</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02218875624090977</v>
+        <v>0.0621073561429899</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5891888643962631</v>
+        <v>0.4927059523421065</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.222022384287754</v>
+        <v>2.307304408396703</v>
       </c>
       <c r="C16">
-        <v>0.6684939270724044</v>
+        <v>0.2750402218524641</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0670900773537344</v>
+        <v>0.1736543755765734</v>
       </c>
       <c r="F16">
-        <v>1.932832798179106</v>
+        <v>2.38763549710356</v>
       </c>
       <c r="G16">
-        <v>1.363014995572257</v>
+        <v>1.312822653780785</v>
       </c>
       <c r="H16">
-        <v>0.7716248771256744</v>
+        <v>1.187481570266044</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02384000784334539</v>
+        <v>0.06273068723253061</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5538529051384984</v>
+        <v>0.484192564575693</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.9967866664187</v>
+        <v>2.247295813553194</v>
       </c>
       <c r="C17">
-        <v>0.6436179245519327</v>
+        <v>0.2674316921504385</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06634996881165911</v>
+        <v>0.1737016671074567</v>
       </c>
       <c r="F17">
-        <v>1.876484203398391</v>
+        <v>2.382080582305704</v>
       </c>
       <c r="G17">
-        <v>1.317540676840935</v>
+        <v>1.308070703349216</v>
       </c>
       <c r="H17">
-        <v>0.7548487699822033</v>
+        <v>1.18801119902227</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0248836068641145</v>
+        <v>0.06312193095476548</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5323419244365653</v>
+        <v>0.4790090824290303</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.86783569710957</v>
+        <v>2.212842183987789</v>
       </c>
       <c r="C18">
-        <v>0.6293624498444217</v>
+        <v>0.2630479501447667</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.06593018077075818</v>
+        <v>0.1737324823296706</v>
       </c>
       <c r="F18">
-        <v>1.844636491535965</v>
+        <v>2.379031945394942</v>
       </c>
       <c r="G18">
-        <v>1.291949038444073</v>
+        <v>1.305448717285714</v>
       </c>
       <c r="H18">
-        <v>0.7454878210248808</v>
+        <v>1.188391858383028</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02549460989530239</v>
+        <v>0.06335021351681025</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5200263300450558</v>
+        <v>0.4760421453952972</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.824273172814742</v>
+        <v>2.201187398485672</v>
       </c>
       <c r="C19">
-        <v>0.6245442705600794</v>
+        <v>0.2615623994564942</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.06578904230977933</v>
+        <v>0.1737435374133636</v>
       </c>
       <c r="F19">
-        <v>1.833947013799317</v>
+        <v>2.378024849607172</v>
       </c>
       <c r="G19">
-        <v>1.283377752416044</v>
+        <v>1.304580016300662</v>
       </c>
       <c r="H19">
-        <v>0.7423663621943035</v>
+        <v>1.18853378593144</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02570328704082403</v>
+        <v>0.06342806390639488</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5158658771143223</v>
+        <v>0.4750400812776974</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.020700290195464</v>
+        <v>2.253677447086886</v>
       </c>
       <c r="C20">
-        <v>0.6462604483560881</v>
+        <v>0.2682424111100659</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.06642813908372247</v>
+        <v>0.173696258958886</v>
       </c>
       <c r="F20">
-        <v>1.882423669152644</v>
+        <v>2.38265675448821</v>
       </c>
       <c r="G20">
-        <v>1.322322341409972</v>
+        <v>1.308565036798598</v>
       </c>
       <c r="H20">
-        <v>0.7566044234951903</v>
+        <v>1.187946946556906</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02477139035054421</v>
+        <v>0.06307994601659761</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5346258179763907</v>
+        <v>0.4795593771890196</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.688190493857746</v>
+        <v>2.430772894938116</v>
       </c>
       <c r="C21">
-        <v>0.7198940305799795</v>
+        <v>0.2905965230122831</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.06864743626624659</v>
+        <v>0.173580534552249</v>
       </c>
       <c r="F21">
-        <v>2.052251750369138</v>
+        <v>2.399970341387359</v>
       </c>
       <c r="G21">
-        <v>1.460162339353758</v>
+        <v>1.323285988720585</v>
       </c>
       <c r="H21">
-        <v>0.8080027984500475</v>
+        <v>1.186884802434918</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02177232641514681</v>
+        <v>0.06194916291626384</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5983669800753546</v>
+        <v>0.4949160164973705</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.130921597466283</v>
+        <v>2.547060423927348</v>
       </c>
       <c r="C22">
-        <v>0.7686188969342993</v>
+        <v>0.3051392951345804</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.07015511795220242</v>
+        <v>0.1735369086294423</v>
       </c>
       <c r="F22">
-        <v>2.168980383291981</v>
+        <v>2.412595001314813</v>
       </c>
       <c r="G22">
-        <v>1.556063968165773</v>
+        <v>1.333906719724098</v>
       </c>
       <c r="H22">
-        <v>0.8445271582239968</v>
+        <v>1.186871170734435</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.01991911557896042</v>
+        <v>0.06123913107536971</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6406260585181371</v>
+        <v>0.5050800754466849</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.893974138404019</v>
+        <v>2.484945874350728</v>
       </c>
       <c r="C23">
-        <v>0.7425515898992501</v>
+        <v>0.2973836671415597</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.06934495973269428</v>
+        <v>0.1735572726060006</v>
       </c>
       <c r="F23">
-        <v>2.106117664831743</v>
+        <v>2.405736919505799</v>
       </c>
       <c r="G23">
-        <v>1.504306258390642</v>
+        <v>1.328146302488193</v>
       </c>
       <c r="H23">
-        <v>0.8247461151614743</v>
+        <v>1.186816006905417</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02089784708747011</v>
+        <v>0.06161543170477835</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6180118219858883</v>
+        <v>0.4996437071483228</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.00988727107773</v>
+        <v>2.250792166891131</v>
       </c>
       <c r="C24">
-        <v>0.6450656212573733</v>
+        <v>0.2678759146526772</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.06639278056740316</v>
+        <v>0.173698692684674</v>
       </c>
       <c r="F24">
-        <v>1.879736738018522</v>
+        <v>2.382395815577141</v>
       </c>
       <c r="G24">
-        <v>1.320158839462835</v>
+        <v>1.30834120619474</v>
       </c>
       <c r="H24">
-        <v>0.7558098122804324</v>
+        <v>1.187975757873119</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02482208921580398</v>
+        <v>0.06309891696828185</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5335931107437517</v>
+        <v>0.4793105480624291</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.0786197458836</v>
+        <v>2.000581317326237</v>
       </c>
       <c r="C25">
-        <v>0.5418610003923163</v>
+        <v>0.2357595633632457</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.06343193324629404</v>
+        <v>0.1739895289975344</v>
       </c>
       <c r="F25">
-        <v>1.656722030449359</v>
+        <v>2.362812498845656</v>
       </c>
       <c r="G25">
-        <v>1.142730802316464</v>
+        <v>1.291224266473506</v>
       </c>
       <c r="H25">
-        <v>0.6923054029514617</v>
+        <v>1.192131450162904</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02946150154801774</v>
+        <v>0.0648233030591765</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.444668284667955</v>
+        <v>0.4579316183698552</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_177/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_177/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.818362043847685</v>
+        <v>3.406707101556663</v>
       </c>
       <c r="C2">
-        <v>0.2118598411243227</v>
+        <v>0.466928800553859</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1743235531513694</v>
+        <v>0.06142213114438633</v>
       </c>
       <c r="F2">
-        <v>2.353167595623987</v>
+        <v>1.50733571632577</v>
       </c>
       <c r="G2">
-        <v>1.282216414801326</v>
+        <v>1.026666215449367</v>
       </c>
       <c r="H2">
-        <v>1.197669600169419</v>
+        <v>0.6531961894025784</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0661997051410177</v>
+        <v>0.0331791496105609</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4426690926716219</v>
+        <v>0.3805824837205307</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.696117719919414</v>
+        <v>2.957583367461609</v>
       </c>
       <c r="C3">
-        <v>0.1955029934090078</v>
+        <v>0.4165412901772925</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1746252053773887</v>
+        <v>0.06015678452543938</v>
       </c>
       <c r="F3">
-        <v>2.349591563410456</v>
+        <v>1.413862884293309</v>
       </c>
       <c r="G3">
-        <v>1.278326469021522</v>
+        <v>0.95551604672157</v>
       </c>
       <c r="H3">
-        <v>1.202959069354051</v>
+        <v>0.6307337691026191</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06719906058118941</v>
+        <v>0.03586703302515737</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4326258510333645</v>
+        <v>0.3378235871686712</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.621674726518108</v>
+        <v>2.68420925157352</v>
       </c>
       <c r="C4">
-        <v>0.185380532939206</v>
+        <v>0.3857213820027994</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1748477295278779</v>
+        <v>0.05942479613403862</v>
       </c>
       <c r="F4">
-        <v>2.34885065708221</v>
+        <v>1.35986548765915</v>
       </c>
       <c r="G4">
-        <v>1.277021478398467</v>
+        <v>0.9150667047380381</v>
       </c>
       <c r="H4">
-        <v>1.206961449066029</v>
+        <v>0.6187211068795335</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06784548599967266</v>
+        <v>0.03759485554338404</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4266081973903511</v>
+        <v>0.3118445008858117</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.59149411452546</v>
+        <v>2.573315903693697</v>
       </c>
       <c r="C5">
-        <v>0.1812356175849175</v>
+        <v>0.373181556542562</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1749478198406944</v>
+        <v>0.05913743522613224</v>
       </c>
       <c r="F5">
-        <v>2.34891388011178</v>
+        <v>1.338655221315946</v>
       </c>
       <c r="G5">
-        <v>1.276760891748253</v>
+        <v>0.8993335359767087</v>
       </c>
       <c r="H5">
-        <v>1.208781779804866</v>
+        <v>0.6142439356809604</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06811715843459343</v>
+        <v>0.03831767503167605</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.424193594103059</v>
+        <v>0.3013193863709205</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.586492061902618</v>
+        <v>2.554930320944891</v>
       </c>
       <c r="C6">
-        <v>0.1805461541182183</v>
+        <v>0.371100225985515</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1749650089350858</v>
+        <v>0.05909036904970222</v>
       </c>
       <c r="F6">
-        <v>2.348946412750678</v>
+        <v>1.335179567575807</v>
       </c>
       <c r="G6">
-        <v>1.276733965674723</v>
+        <v>0.8967645909976909</v>
       </c>
       <c r="H6">
-        <v>1.209095466814091</v>
+        <v>0.6135249374649163</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0681627675559362</v>
+        <v>0.03843880838840708</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4237949299977117</v>
+        <v>0.2995752069413697</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.621267069570649</v>
+        <v>2.682711761495113</v>
       </c>
       <c r="C7">
-        <v>0.1853247138436132</v>
+        <v>0.385552199290629</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1748490412420125</v>
+        <v>0.05942087689613906</v>
       </c>
       <c r="F7">
-        <v>2.34885003215777</v>
+        <v>1.359576299157951</v>
       </c>
       <c r="G7">
-        <v>1.277016867571092</v>
+        <v>0.9148515648890765</v>
       </c>
       <c r="H7">
-        <v>1.206985232676942</v>
+        <v>0.6186590706382731</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06784911647448588</v>
+        <v>0.03760452890016008</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4265754805516337</v>
+        <v>0.3117023158187635</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.776084841295074</v>
+        <v>3.25129547211111</v>
       </c>
       <c r="C8">
-        <v>0.2062364553657119</v>
+        <v>0.4495242336097931</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1744198363247929</v>
+        <v>0.06097628006844147</v>
       </c>
       <c r="F8">
-        <v>2.351632225636038</v>
+        <v>1.474364349037884</v>
       </c>
       <c r="G8">
-        <v>1.280649542688749</v>
+        <v>1.001421938787345</v>
       </c>
       <c r="H8">
-        <v>1.199336527305064</v>
+        <v>0.6450635036574823</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06653746968779473</v>
+        <v>0.03408937745050178</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4391753788185184</v>
+        <v>0.3657773692819575</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.084551954139272</v>
+        <v>4.389840169756098</v>
       </c>
       <c r="C9">
-        <v>0.2466169266309919</v>
+        <v>0.5764232100195557</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.173873002580974</v>
+        <v>0.06440148660204059</v>
       </c>
       <c r="F9">
-        <v>2.368665149630729</v>
+        <v>1.729331712359368</v>
       </c>
       <c r="G9">
-        <v>1.296427904795053</v>
+        <v>1.200006237077133</v>
       </c>
       <c r="H9">
-        <v>1.190345303739406</v>
+        <v>0.712404088542371</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06422585402298164</v>
+        <v>0.02784893600013305</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4650589893580559</v>
+        <v>0.474379168790847</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.314160155894683</v>
+        <v>5.247808187325631</v>
       </c>
       <c r="C10">
-        <v>0.2759073894301878</v>
+        <v>0.6713399983893282</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1736494684309875</v>
+        <v>0.0671753437841911</v>
       </c>
       <c r="F10">
-        <v>2.388289208417035</v>
+        <v>1.939341129590417</v>
       </c>
       <c r="G10">
-        <v>1.31337998580517</v>
+        <v>1.368282902724303</v>
       </c>
       <c r="H10">
-        <v>1.187431450249392</v>
+        <v>0.7735793790591572</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.06268648413176159</v>
+        <v>0.02372241808124365</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4847859918471045</v>
+        <v>0.5563154762218829</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.419265502778728</v>
+        <v>5.644579044940201</v>
       </c>
       <c r="C11">
-        <v>0.2891519091557768</v>
+        <v>0.7150898538583874</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1735861650505619</v>
+        <v>0.06850036988058861</v>
       </c>
       <c r="F11">
-        <v>2.398772223941606</v>
+        <v>2.040924795476698</v>
       </c>
       <c r="G11">
-        <v>1.322273969976379</v>
+        <v>1.450904676634565</v>
       </c>
       <c r="H11">
-        <v>1.186914017706584</v>
+        <v>0.8045073860982654</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06202074684319037</v>
+        <v>0.0219606198866078</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4939134715579172</v>
+        <v>0.5942031784760076</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.459160235515697</v>
+        <v>5.795924966258724</v>
       </c>
       <c r="C12">
-        <v>0.2941558377081606</v>
+        <v>0.7317582763207326</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1735676866514595</v>
+        <v>0.06901188594909158</v>
       </c>
       <c r="F12">
-        <v>2.402966464740416</v>
+        <v>2.080366648666029</v>
       </c>
       <c r="G12">
-        <v>1.325813336318561</v>
+        <v>1.48317868577044</v>
       </c>
       <c r="H12">
-        <v>1.186834791729922</v>
+        <v>0.816717309765977</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06177362114781459</v>
+        <v>0.0213116411600458</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4973917563277865</v>
+        <v>0.6086522067611639</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.450564036930757</v>
+        <v>5.763278259833669</v>
       </c>
       <c r="C13">
-        <v>0.2930786628538726</v>
+        <v>0.7281635988962876</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1735714224087115</v>
+        <v>0.06890127632917142</v>
       </c>
       <c r="F13">
-        <v>2.40205316006751</v>
+        <v>2.071827019883841</v>
       </c>
       <c r="G13">
-        <v>1.325043425028525</v>
+        <v>1.476182053323242</v>
       </c>
       <c r="H13">
-        <v>1.186846655373813</v>
+        <v>0.8140646271591265</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06182662268952654</v>
+        <v>0.02145057426265851</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4966416739503785</v>
+        <v>0.605535594151462</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.422545793669087</v>
+        <v>5.657007352913354</v>
       </c>
       <c r="C14">
-        <v>0.2895638155023619</v>
+        <v>0.716459027131009</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1735845348787919</v>
+        <v>0.0685422529417643</v>
       </c>
       <c r="F14">
-        <v>2.399112781683129</v>
+        <v>2.044149534346133</v>
       </c>
       <c r="G14">
-        <v>1.322561712592915</v>
+        <v>1.453539400590557</v>
       </c>
       <c r="H14">
-        <v>1.186905157665478</v>
+        <v>0.8055015976266304</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0620003159105611</v>
+        <v>0.02190685384887914</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4941991941016397</v>
+        <v>0.5953897869215439</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.405395984528582</v>
+        <v>5.592061517473667</v>
       </c>
       <c r="C15">
-        <v>0.2874093745781749</v>
+        <v>0.7093034374998126</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1735932812491914</v>
+        <v>0.06832363269088759</v>
       </c>
       <c r="F15">
-        <v>2.397340982192176</v>
+        <v>2.027326456021669</v>
       </c>
       <c r="G15">
-        <v>1.321063955423199</v>
+        <v>1.43980225011822</v>
       </c>
       <c r="H15">
-        <v>1.186956206910537</v>
+        <v>0.8003230312142477</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0621073561429899</v>
+        <v>0.0221887562409675</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4927059523421065</v>
+        <v>0.5891888643962488</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.307304408396703</v>
+        <v>5.222022384287811</v>
       </c>
       <c r="C16">
-        <v>0.2750402218524641</v>
+        <v>0.6684939270725465</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1736543755765734</v>
+        <v>0.0670900773537344</v>
       </c>
       <c r="F16">
-        <v>2.38763549710356</v>
+        <v>1.932832798179135</v>
       </c>
       <c r="G16">
-        <v>1.312822653780785</v>
+        <v>1.363014995572286</v>
       </c>
       <c r="H16">
-        <v>1.187481570266044</v>
+        <v>0.7716248771255607</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06273068723253061</v>
+        <v>0.02384000784339957</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.484192564575693</v>
+        <v>0.5538529051384273</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.247295813553194</v>
+        <v>4.996786666418757</v>
       </c>
       <c r="C17">
-        <v>0.2674316921504385</v>
+        <v>0.6436179245520748</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1737016671074567</v>
+        <v>0.06634996881165733</v>
       </c>
       <c r="F17">
-        <v>2.382080582305704</v>
+        <v>1.876484203398391</v>
       </c>
       <c r="G17">
-        <v>1.308070703349216</v>
+        <v>1.317540676840906</v>
       </c>
       <c r="H17">
-        <v>1.18801119902227</v>
+        <v>0.7548487699822033</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.06312193095476548</v>
+        <v>0.02488360686411006</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4790090824290303</v>
+        <v>0.5323419244365084</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.212842183987789</v>
+        <v>4.867835697109456</v>
       </c>
       <c r="C18">
-        <v>0.2630479501447667</v>
+        <v>0.6293624498443933</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1737324823296706</v>
+        <v>0.06593018077078838</v>
       </c>
       <c r="F18">
-        <v>2.379031945394942</v>
+        <v>1.844636491535965</v>
       </c>
       <c r="G18">
-        <v>1.305448717285714</v>
+        <v>1.291949038443988</v>
       </c>
       <c r="H18">
-        <v>1.188391858383028</v>
+        <v>0.7454878210248523</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06335021351681025</v>
+        <v>0.0254946098952562</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4760421453952972</v>
+        <v>0.520026330044999</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.201187398485672</v>
+        <v>4.824273172814628</v>
       </c>
       <c r="C19">
-        <v>0.2615623994564942</v>
+        <v>0.6245442705599373</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1737435374133636</v>
+        <v>0.06578904230978111</v>
       </c>
       <c r="F19">
-        <v>2.378024849607172</v>
+        <v>1.833947013799317</v>
       </c>
       <c r="G19">
-        <v>1.304580016300662</v>
+        <v>1.283377752416072</v>
       </c>
       <c r="H19">
-        <v>1.18853378593144</v>
+        <v>0.7423663621943035</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06342806390639488</v>
+        <v>0.02570328704081959</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4750400812776974</v>
+        <v>0.5158658771143223</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.253677447086886</v>
+        <v>5.020700290195578</v>
       </c>
       <c r="C20">
-        <v>0.2682424111100659</v>
+        <v>0.6462604483560312</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.173696258958886</v>
+        <v>0.0664281390837278</v>
       </c>
       <c r="F20">
-        <v>2.38265675448821</v>
+        <v>1.882423669152672</v>
       </c>
       <c r="G20">
-        <v>1.308565036798598</v>
+        <v>1.32232234140983</v>
       </c>
       <c r="H20">
-        <v>1.187946946556906</v>
+        <v>0.7566044234953324</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06307994601659761</v>
+        <v>0.02477139035037546</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4795593771890196</v>
+        <v>0.5346258179765897</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.430772894938116</v>
+        <v>5.688190493857689</v>
       </c>
       <c r="C21">
-        <v>0.2905965230122831</v>
+        <v>0.7198940305799795</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.173580534552249</v>
+        <v>0.06864743626624836</v>
       </c>
       <c r="F21">
-        <v>2.399970341387359</v>
+        <v>2.052251750369123</v>
       </c>
       <c r="G21">
-        <v>1.323285988720585</v>
+        <v>1.460162339353815</v>
       </c>
       <c r="H21">
-        <v>1.186884802434918</v>
+        <v>0.8080027984500475</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.06194916291626384</v>
+        <v>0.02177232641514326</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4949160164973705</v>
+        <v>0.5983669800754114</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.547060423927348</v>
+        <v>6.13092159746617</v>
       </c>
       <c r="C22">
-        <v>0.3051392951345804</v>
+        <v>0.7686188969342993</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1735369086294423</v>
+        <v>0.07015511795217577</v>
       </c>
       <c r="F22">
-        <v>2.412595001314813</v>
+        <v>2.168980383291995</v>
       </c>
       <c r="G22">
-        <v>1.333906719724098</v>
+        <v>1.556063968165603</v>
       </c>
       <c r="H22">
-        <v>1.186871170734435</v>
+        <v>0.8445271582240821</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06123913107536971</v>
+        <v>0.01991911557901904</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5050800754466849</v>
+        <v>0.6406260585180377</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.484945874350728</v>
+        <v>5.893974138403905</v>
       </c>
       <c r="C23">
-        <v>0.2973836671415597</v>
+        <v>0.7425515898992785</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1735572726060006</v>
+        <v>0.06934495973269605</v>
       </c>
       <c r="F23">
-        <v>2.405736919505799</v>
+        <v>2.106117664831729</v>
       </c>
       <c r="G23">
-        <v>1.328146302488193</v>
+        <v>1.504306258390557</v>
       </c>
       <c r="H23">
-        <v>1.186816006905417</v>
+        <v>0.8247461151614743</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06161543170477835</v>
+        <v>0.02089784708748255</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4996437071483228</v>
+        <v>0.6180118219858457</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.250792166891131</v>
+        <v>5.009887271077673</v>
       </c>
       <c r="C24">
-        <v>0.2678759146526772</v>
+        <v>0.6450656212575723</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.173698692684674</v>
+        <v>0.06639278056739961</v>
       </c>
       <c r="F24">
-        <v>2.382395815577141</v>
+        <v>1.879736738018522</v>
       </c>
       <c r="G24">
-        <v>1.30834120619474</v>
+        <v>1.320158839462835</v>
       </c>
       <c r="H24">
-        <v>1.187975757873119</v>
+        <v>0.7558098122804324</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06309891696828185</v>
+        <v>0.02482208921578444</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4793105480624291</v>
+        <v>0.5335931107437517</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.000581317326237</v>
+        <v>4.078619745883543</v>
       </c>
       <c r="C25">
-        <v>0.2357595633632457</v>
+        <v>0.5418610003922026</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1739895289975344</v>
+        <v>0.06343193324627627</v>
       </c>
       <c r="F25">
-        <v>2.362812498845656</v>
+        <v>1.656722030449359</v>
       </c>
       <c r="G25">
-        <v>1.291224266473506</v>
+        <v>1.142730802316422</v>
       </c>
       <c r="H25">
-        <v>1.192131450162904</v>
+        <v>0.6923054029515754</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0648233030591765</v>
+        <v>0.02946150154801064</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4579316183698552</v>
+        <v>0.4446682846679835</v>
       </c>
       <c r="M25">
         <v>0</v>
